--- a/1_Result_Tables/4_ifo_QoQ_matched_to_ifoCAST/ifo_qoq_matched_error_tables_T45.xlsx
+++ b/1_Result_Tables/4_ifo_QoQ_matched_to_ifoCAST/ifo_qoq_matched_error_tables_T45.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.344352065575682</v>
+        <v>-0.1112181501777582</v>
       </c>
       <c r="C2">
-        <v>1.769756059939204</v>
+        <v>2.129230451805604</v>
       </c>
       <c r="D2">
-        <v>17.94787148492861</v>
+        <v>21.3896688524574</v>
       </c>
       <c r="E2">
-        <v>4.236492828381587</v>
+        <v>4.624896631542958</v>
       </c>
       <c r="F2">
-        <v>4.326749102600647</v>
+        <v>4.732363681339207</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.832062645384273</v>
+        <v>1.601564424175498</v>
       </c>
       <c r="C3">
-        <v>1.489722088140216</v>
+        <v>2.22790675060973</v>
       </c>
       <c r="D3">
-        <v>9.944081269325018</v>
+        <v>23.21886171173811</v>
       </c>
       <c r="E3">
-        <v>3.153423737673867</v>
+        <v>4.818595408595549</v>
       </c>
       <c r="F3">
-        <v>3.120687006596151</v>
+        <v>4.656881549094973</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.4746701755316298</v>
+        <v>0.2290663667550482</v>
       </c>
       <c r="C4">
-        <v>1.215598750425409</v>
+        <v>1.376689112904139</v>
       </c>
       <c r="D4">
-        <v>4.085882431699008</v>
+        <v>4.866116910555858</v>
       </c>
       <c r="E4">
-        <v>2.021356582025796</v>
+        <v>2.205927675730974</v>
       </c>
       <c r="F4">
-        <v>2.018674516539062</v>
+        <v>2.250998728091834</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.6834973687139059</v>
+        <v>0.7581909808868581</v>
       </c>
       <c r="C5">
-        <v>0.8783478473094631</v>
+        <v>0.9427861711352807</v>
       </c>
       <c r="D5">
-        <v>1.113073297438501</v>
+        <v>1.287187669203633</v>
       </c>
       <c r="E5">
-        <v>1.055022889532972</v>
+        <v>1.134542934050375</v>
       </c>
       <c r="F5">
-        <v>0.8269818832639007</v>
+        <v>0.8671264167865568</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.5279507241667447</v>
+        <v>0.6536748506019255</v>
       </c>
       <c r="C6">
-        <v>0.783226606028504</v>
+        <v>0.8947687390269206</v>
       </c>
       <c r="D6">
-        <v>0.9439528540838883</v>
+        <v>1.324266432758395</v>
       </c>
       <c r="E6">
-        <v>0.971572361733231</v>
+        <v>1.150767757959179</v>
       </c>
       <c r="F6">
-        <v>0.8407123124881538</v>
+        <v>0.9745454809077441</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.2828936784138137</v>
+        <v>0.2081861679188835</v>
       </c>
       <c r="C7">
-        <v>0.5947694054521401</v>
+        <v>0.6178496757196613</v>
       </c>
       <c r="D7">
-        <v>0.4864279964409719</v>
+        <v>0.5151342045300913</v>
       </c>
       <c r="E7">
-        <v>0.6974439020028578</v>
+        <v>0.7177285033563118</v>
       </c>
       <c r="F7">
-        <v>0.6584014282321274</v>
+        <v>0.7080111364014168</v>
       </c>
       <c r="G7">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.2909925934927001</v>
+        <v>0.1864016188994063</v>
       </c>
       <c r="C8">
-        <v>0.4830626376919827</v>
+        <v>0.5392751603362338</v>
       </c>
       <c r="D8">
-        <v>0.3684314269129884</v>
+        <v>0.464854709378989</v>
       </c>
       <c r="E8">
-        <v>0.6069855244674195</v>
+        <v>0.6818025442743588</v>
       </c>
       <c r="F8">
-        <v>0.5513827463542846</v>
+        <v>0.6773352854439084</v>
       </c>
       <c r="G8">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7">

--- a/1_Result_Tables/4_ifo_QoQ_matched_to_ifoCAST/ifo_qoq_matched_error_tables_T45.xlsx
+++ b/1_Result_Tables/4_ifo_QoQ_matched_to_ifoCAST/ifo_qoq_matched_error_tables_T45.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.1112181501777582</v>
+        <v>-0.09889220731696108</v>
       </c>
       <c r="C2">
-        <v>2.129230451805604</v>
+        <v>2.044145585884516</v>
       </c>
       <c r="D2">
-        <v>21.3896688524574</v>
+        <v>20.46097368034341</v>
       </c>
       <c r="E2">
-        <v>4.624896631542958</v>
+        <v>4.523380779941415</v>
       </c>
       <c r="F2">
-        <v>4.732363681339207</v>
+        <v>4.62393703887486</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>1.601564424175498</v>
+        <v>1.536575381265211</v>
       </c>
       <c r="C3">
-        <v>2.22790675060973</v>
+        <v>2.134447601952433</v>
       </c>
       <c r="D3">
-        <v>23.21886171173811</v>
+        <v>22.16480059406862</v>
       </c>
       <c r="E3">
-        <v>4.818595408595549</v>
+        <v>4.707950785009187</v>
       </c>
       <c r="F3">
-        <v>4.656881549094973</v>
+        <v>4.554862431766541</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2290663667550482</v>
+        <v>0.2287529840863657</v>
       </c>
       <c r="C4">
-        <v>1.376689112904139</v>
+        <v>1.32172702803788</v>
       </c>
       <c r="D4">
-        <v>4.866116910555858</v>
+        <v>4.6367541873095</v>
       </c>
       <c r="E4">
-        <v>2.205927675730974</v>
+        <v>2.153312375692273</v>
       </c>
       <c r="F4">
-        <v>2.250998728091834</v>
+        <v>2.194002637318409</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.7581909808868581</v>
+        <v>0.7295427155613371</v>
       </c>
       <c r="C5">
-        <v>0.9427861711352807</v>
+        <v>0.9049081462973387</v>
       </c>
       <c r="D5">
-        <v>1.287187669203633</v>
+        <v>1.224543713265862</v>
       </c>
       <c r="E5">
-        <v>1.134542934050375</v>
+        <v>1.106591032525504</v>
       </c>
       <c r="F5">
-        <v>0.8671264167865568</v>
+        <v>0.8536677151144266</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.6536748506019255</v>
+        <v>0.6468487310729173</v>
       </c>
       <c r="C6">
-        <v>0.8947687390269206</v>
+        <v>0.8752534674755443</v>
       </c>
       <c r="D6">
-        <v>1.324266432758395</v>
+        <v>1.269018386393639</v>
       </c>
       <c r="E6">
-        <v>1.150767757959179</v>
+        <v>1.126507162158164</v>
       </c>
       <c r="F6">
-        <v>0.9745454809077441</v>
+        <v>0.9475552462509015</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.2081861679188835</v>
+        <v>0.2186385474789455</v>
       </c>
       <c r="C7">
-        <v>0.6178496757196613</v>
+        <v>0.6055429715130134</v>
       </c>
       <c r="D7">
-        <v>0.5151342045300913</v>
+        <v>0.4952421196251417</v>
       </c>
       <c r="E7">
-        <v>0.7177285033563118</v>
+        <v>0.7037344098629409</v>
       </c>
       <c r="F7">
-        <v>0.7080111364014168</v>
+        <v>0.6883017247615748</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1864016188994063</v>
+        <v>0.198091363434846</v>
       </c>
       <c r="C8">
-        <v>0.5392751603362338</v>
+        <v>0.5302076377283306</v>
       </c>
       <c r="D8">
-        <v>0.464854709378989</v>
+        <v>0.4462351981637913</v>
       </c>
       <c r="E8">
-        <v>0.6818025442743588</v>
+        <v>0.6680083818065394</v>
       </c>
       <c r="F8">
-        <v>0.6773352854439084</v>
+        <v>0.6575957709830825</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2421021692082131</v>
+        <v>0.2488500629165574</v>
       </c>
       <c r="C9">
-        <v>0.2421021692082131</v>
+        <v>0.2488500629165574</v>
       </c>
       <c r="D9">
-        <v>0.07738661487532641</v>
+        <v>0.0794481986358422</v>
       </c>
       <c r="E9">
-        <v>0.2781844979062033</v>
+        <v>0.2818655683758522</v>
       </c>
       <c r="F9">
-        <v>0.1444266616660672</v>
+        <v>0.1388309378506621</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.281065297608403</v>
+        <v>0.2825386127611949</v>
       </c>
       <c r="C10">
-        <v>0.281065297608403</v>
+        <v>0.2825386127611949</v>
       </c>
       <c r="D10">
-        <v>0.1042382379686638</v>
+        <v>0.1014758371739403</v>
       </c>
       <c r="E10">
-        <v>0.3228594709291704</v>
+        <v>0.318552722753927</v>
       </c>
       <c r="F10">
-        <v>0.1740363287901592</v>
+        <v>0.1589205180325681</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
